--- a/Assignments/Lab1/Lab1_Fiducial_Measurements.xlsx
+++ b/Assignments/Lab1/Lab1_Fiducial_Measurements.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cglennie/Google Drive/Teaching/CIVE_7397_PHOTO_SP2018/lab/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\metrology\Assignments\Lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FAE4190-61E2-4D57-AF2C-2F8667353259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="2040" windowWidth="27640" windowHeight="16940" xr2:uid="{AE20FE3D-1090-FC40-B55A-1EA2B22C4697}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AE20FE3D-1090-FC40-B55A-1EA2B22C4697}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -69,7 +71,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <numFmts count="2">
+    <numFmt numFmtId="168" formatCode="0.00000000000E+00"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -93,6 +99,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -114,10 +131,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,309 +454,462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FAFBEA0-EAB7-F947-91CF-1F322D5E19C4}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>-106</v>
+      </c>
+      <c r="C8">
+        <v>106.009</v>
+      </c>
+      <c r="E8">
+        <v>1347</v>
+      </c>
+      <c r="F8">
+        <v>-1472</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C9">
+        <v>112.00700000000001</v>
+      </c>
+      <c r="E9">
+        <v>10254</v>
+      </c>
+      <c r="F9">
+        <v>-967</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1.1899426266928101E-2</v>
+      </c>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>106.004</v>
+      </c>
+      <c r="C10">
+        <v>106.008</v>
+      </c>
+      <c r="E10">
+        <v>19162</v>
+      </c>
+      <c r="F10">
+        <v>-1471</v>
+      </c>
+      <c r="I10" s="4">
+        <v>2.9976774439538398E-7</v>
+      </c>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>112.006</v>
+      </c>
+      <c r="C11">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E11">
+        <v>19667</v>
+      </c>
+      <c r="F11">
+        <v>-10377</v>
+      </c>
+      <c r="I11" s="4">
+        <v>-1.3405013290104401E-6</v>
+      </c>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>106.012</v>
+      </c>
+      <c r="C12">
+        <v>-105.995</v>
+      </c>
+      <c r="E12">
+        <v>19164</v>
+      </c>
+      <c r="F12">
+        <v>-19284</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1.1901264695956201E-2</v>
+      </c>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>2E-3</v>
+      </c>
+      <c r="C13">
+        <v>-111.998</v>
+      </c>
+      <c r="E13">
+        <v>10255</v>
+      </c>
+      <c r="F13">
+        <v>-19789</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>-105.997</v>
+      </c>
+      <c r="C14">
+        <v>-105.995</v>
+      </c>
+      <c r="E14">
+        <v>1346</v>
+      </c>
+      <c r="F14">
+        <v>-19286</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>-112</v>
+      </c>
+      <c r="C15">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E15">
+        <v>842</v>
+      </c>
+      <c r="F15">
+        <v>-10380</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>1359</v>
+      </c>
+      <c r="F19">
+        <v>-1472</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>10268</v>
+      </c>
+      <c r="F20">
+        <v>-973</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>19175</v>
+      </c>
+      <c r="F21">
+        <v>-1484</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>19673</v>
+      </c>
+      <c r="F22">
+        <v>-10390</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>19163</v>
+      </c>
+      <c r="F23">
+        <v>-19297</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>8</v>
+      </c>
+      <c r="E24">
+        <v>10254</v>
+      </c>
+      <c r="F24">
+        <v>-19796</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1347</v>
+      </c>
+      <c r="F25">
+        <v>-19286</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>850</v>
+      </c>
+      <c r="F26">
+        <v>-10379</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32CED52-02E8-4A63-8531-EC0F03FCFB03}">
+  <dimension ref="B2:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>-106</v>
-      </c>
-      <c r="C8">
-        <v>106.009</v>
-      </c>
-      <c r="E8">
-        <v>1347</v>
-      </c>
-      <c r="F8">
-        <v>-1472</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C9">
-        <v>112.00700000000001</v>
-      </c>
-      <c r="E9">
-        <v>10254</v>
-      </c>
-      <c r="F9">
-        <v>-967</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10">
-        <v>106.004</v>
-      </c>
-      <c r="C10">
-        <v>106.008</v>
-      </c>
-      <c r="E10">
-        <v>19162</v>
-      </c>
-      <c r="F10">
-        <v>-1471</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <v>112.006</v>
-      </c>
-      <c r="C11">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="E11">
-        <v>19667</v>
-      </c>
-      <c r="F11">
-        <v>-10377</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>4</v>
-      </c>
-      <c r="B12">
-        <v>106.012</v>
-      </c>
-      <c r="C12">
-        <v>-105.995</v>
-      </c>
-      <c r="E12">
-        <v>19164</v>
-      </c>
-      <c r="F12">
-        <v>-19284</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>8</v>
-      </c>
-      <c r="B13">
-        <v>2E-3</v>
-      </c>
-      <c r="C13">
-        <v>-111.998</v>
-      </c>
-      <c r="E13">
-        <v>10255</v>
-      </c>
-      <c r="F13">
-        <v>-19789</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>-105.997</v>
-      </c>
-      <c r="C14">
-        <v>-105.995</v>
-      </c>
-      <c r="E14">
-        <v>1346</v>
-      </c>
-      <c r="F14">
-        <v>-19286</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
-        <v>5</v>
-      </c>
-      <c r="B15">
-        <v>-112</v>
-      </c>
-      <c r="C15">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="E15">
-        <v>842</v>
-      </c>
-      <c r="F15">
-        <v>-10380</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19">
-        <v>3</v>
-      </c>
-      <c r="E19">
-        <v>1359</v>
-      </c>
-      <c r="F19">
-        <v>-1472</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
-        <v>7</v>
-      </c>
-      <c r="E20">
-        <v>10268</v>
-      </c>
-      <c r="F20">
-        <v>-973</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>19175</v>
-      </c>
-      <c r="F21">
-        <v>-1484</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22">
-        <v>6</v>
-      </c>
-      <c r="E22">
-        <v>19673</v>
-      </c>
-      <c r="F22">
-        <v>-10390</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23">
-        <v>4</v>
-      </c>
-      <c r="E23">
-        <v>19163</v>
-      </c>
-      <c r="F23">
-        <v>-19297</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24">
-        <v>8</v>
-      </c>
-      <c r="E24">
-        <v>10254</v>
-      </c>
-      <c r="F24">
-        <v>-19796</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>1347</v>
-      </c>
-      <c r="F25">
-        <v>-19286</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26">
-        <v>5</v>
-      </c>
-      <c r="E26">
-        <v>850</v>
-      </c>
-      <c r="F26">
-        <v>-10379</v>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="5">
+        <v>-9.4491575999999995</v>
+      </c>
+      <c r="C2" s="5">
+        <v>96.243916839999997</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="5">
+        <v>85.032476110000005</v>
+      </c>
+      <c r="C3" s="5">
+        <v>103.74297129</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="5">
+        <v>-2.3239765700000001</v>
+      </c>
+      <c r="C4" s="5">
+        <v>-6.0006511199999997</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="5">
+        <v>105.94904422</v>
+      </c>
+      <c r="C5" s="5">
+        <v>-0.40735266999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="5">
+        <v>18.914589790000001</v>
+      </c>
+      <c r="C6" s="5">
+        <v>-81.814100030000006</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>90.287116220000001</v>
+      </c>
+      <c r="C7" s="5">
+        <v>-91.045620490000005</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="5">
+        <v>18.16974591</v>
+      </c>
+      <c r="C8" s="5">
+        <v>109.54641947</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <v>44.679097120000002</v>
+      </c>
+      <c r="C9" s="5">
+        <v>7.4900880699999997</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="5">
+        <v>-7.5846078400000003</v>
+      </c>
+      <c r="C10" s="5">
+        <v>-49.070735550000002</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <v>52.732474170000003</v>
+      </c>
+      <c r="C11" s="5">
+        <v>-93.136012460000003</v>
       </c>
     </row>
   </sheetData>
